--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCD/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCD/10/seed2/result_data_RandomForest.xlsx
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>5.98859999999999</v>
+        <v>5.732099999999989</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -522,7 +522,7 @@
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.436899999999994</v>
+        <v>-8.517999999999994</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -590,7 +590,7 @@
         <v>-13.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.488100000000006</v>
+        <v>-8.580000000000002</v>
       </c>
       <c r="E9" t="n">
         <v>12.31</v>
@@ -624,7 +624,7 @@
         <v>-13.87</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.367100000000006</v>
+        <v>-8.379000000000001</v>
       </c>
       <c r="E11" t="n">
         <v>13.91</v>
@@ -788,13 +788,13 @@
         <v>-21.82</v>
       </c>
       <c r="B21" t="n">
-        <v>5.787499999999993</v>
+        <v>5.604799999999991</v>
       </c>
       <c r="C21" t="n">
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.415800000000003</v>
+        <v>-7.589499999999998</v>
       </c>
       <c r="E21" t="n">
         <v>13.76</v>
@@ -822,7 +822,7 @@
         <v>-20.86</v>
       </c>
       <c r="B23" t="n">
-        <v>5.947599999999999</v>
+        <v>6.049799999999998</v>
       </c>
       <c r="C23" t="n">
         <v>-10.59</v>
@@ -856,7 +856,7 @@
         <v>-21.66</v>
       </c>
       <c r="B25" t="n">
-        <v>5.796499999999996</v>
+        <v>5.711199999999992</v>
       </c>
       <c r="C25" t="n">
         <v>-14.32</v>
